--- a/_register_test.xlsx
+++ b/_register_test.xlsx
@@ -5940,22 +5940,78 @@
       <c r="AP75" s="116" t="n"/>
     </row>
     <row r="76">
-      <c r="A76" s="9" t="n"/>
-      <c r="B76" s="9" t="n"/>
-      <c r="C76" s="14" t="n"/>
-      <c r="D76" s="115" t="n"/>
-      <c r="E76" s="115" t="n"/>
-      <c r="F76" s="21" t="n"/>
-      <c r="G76" s="115" t="n"/>
-      <c r="H76" s="115" t="n"/>
-      <c r="I76" s="21" t="n"/>
-      <c r="J76" s="21" t="n"/>
-      <c r="K76" s="21" t="n"/>
-      <c r="L76" s="21" t="n"/>
-      <c r="M76" s="21" t="n"/>
-      <c r="N76" s="21" t="n"/>
-      <c r="O76" s="21" t="n"/>
-      <c r="P76" s="21" t="n"/>
+      <c r="A76" s="9" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="B76" s="9" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="C76" s="14" t="inlineStr">
+        <is>
+          <t>ываы</t>
+        </is>
+      </c>
+      <c r="D76" s="115" t="inlineStr">
+        <is>
+          <t>ыв</t>
+        </is>
+      </c>
+      <c r="E76" s="115" t="inlineStr">
+        <is>
+          <t>аы</t>
+        </is>
+      </c>
+      <c r="F76" s="21" t="inlineStr">
+        <is>
+          <t>ываыва</t>
+        </is>
+      </c>
+      <c r="G76" s="115" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="H76" s="115" t="inlineStr"/>
+      <c r="I76" s="21" t="inlineStr"/>
+      <c r="J76" s="21" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="K76" s="21" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="L76" s="21" t="inlineStr">
+        <is>
+          <t>Видео</t>
+        </is>
+      </c>
+      <c r="M76" s="21" t="inlineStr">
+        <is>
+          <t>Видео</t>
+        </is>
+      </c>
+      <c r="N76" s="21" t="inlineStr">
+        <is>
+          <t>Видео</t>
+        </is>
+      </c>
+      <c r="O76" s="21" t="inlineStr">
+        <is>
+          <t>rdfg</t>
+        </is>
+      </c>
+      <c r="P76" s="21" t="inlineStr">
+        <is>
+          <t>dfgdfg</t>
+        </is>
+      </c>
       <c r="Q76" s="116" t="n"/>
       <c r="R76" s="116" t="n"/>
       <c r="S76" s="116" t="n"/>
@@ -5984,22 +6040,58 @@
       <c r="AP76" s="116" t="n"/>
     </row>
     <row r="77">
-      <c r="A77" s="9" t="n"/>
-      <c r="B77" s="9" t="n"/>
-      <c r="C77" s="8" t="n"/>
-      <c r="D77" s="115" t="n"/>
-      <c r="E77" s="115" t="n"/>
-      <c r="F77" s="21" t="n"/>
-      <c r="G77" s="115" t="n"/>
-      <c r="H77" s="115" t="n"/>
-      <c r="I77" s="21" t="n"/>
-      <c r="J77" s="21" t="n"/>
-      <c r="K77" s="21" t="n"/>
-      <c r="L77" s="21" t="n"/>
-      <c r="M77" s="21" t="n"/>
-      <c r="N77" s="21" t="n"/>
-      <c r="O77" s="21" t="n"/>
-      <c r="P77" s="21" t="n"/>
+      <c r="A77" s="9" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="B77" s="9" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="C77" s="8" t="inlineStr">
+        <is>
+          <t>345</t>
+        </is>
+      </c>
+      <c r="D77" s="115" t="inlineStr">
+        <is>
+          <t>3425</t>
+        </is>
+      </c>
+      <c r="E77" s="115" t="inlineStr">
+        <is>
+          <t>234</t>
+        </is>
+      </c>
+      <c r="F77" s="21" t="inlineStr">
+        <is>
+          <t>Банк практик</t>
+        </is>
+      </c>
+      <c r="G77" s="115" t="inlineStr"/>
+      <c r="H77" s="115" t="inlineStr"/>
+      <c r="I77" s="21" t="inlineStr"/>
+      <c r="J77" s="21" t="inlineStr"/>
+      <c r="K77" s="21" t="inlineStr"/>
+      <c r="L77" s="21" t="inlineStr">
+        <is>
+          <t>Видео</t>
+        </is>
+      </c>
+      <c r="M77" s="21" t="inlineStr"/>
+      <c r="N77" s="21" t="inlineStr">
+        <is>
+          <t>авапвп</t>
+        </is>
+      </c>
+      <c r="O77" s="21" t="inlineStr">
+        <is>
+          <t>latin</t>
+        </is>
+      </c>
+      <c r="P77" s="21" t="inlineStr"/>
       <c r="Q77" s="116" t="n"/>
       <c r="R77" s="116" t="n"/>
       <c r="S77" s="116" t="n"/>
